--- a/mssgs.xlsx
+++ b/mssgs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macu\Desktop\whasen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0A99C1-ACBF-4B66-BF0A-1D827F352983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F23E6-BDE8-4D76-BD57-E46D367A1174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -364,6 +364,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mssgs.xlsx
+++ b/mssgs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macu\Desktop\whasen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F23E6-BDE8-4D76-BD57-E46D367A1174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A251F5F-6BD3-4E6B-AF2C-C05B5F16CB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Telefono</t>
   </si>
   <si>
     <t>Mensaje</t>
+  </si>
+  <si>
+    <t>xd</t>
   </si>
 </sst>
 </file>
@@ -365,8 +368,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>888</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/mssgs.xlsx
+++ b/mssgs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macu\Desktop\whasen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A251F5F-6BD3-4E6B-AF2C-C05B5F16CB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911B67A6-6745-4E64-9292-2220FB3666C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <t>Mensaje</t>
   </si>
   <si>
-    <t>xd</t>
+    <t>patata</t>
   </si>
 </sst>
 </file>
